--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Lentivirus-GLUE/tabular/curated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62388D5-DF13-C246-AC63-3AAB8D8503B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41225ACB-9E78-5248-A11D-36832F590FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRLV_curated.csv" sheetId="1" r:id="rId1"/>
     <sheet name="OUT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3862,7 +3862,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4335,11 +4335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="A1:L689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22270,7 +22270,7 @@
         <v>37</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>37</v>
+        <v>1268</v>
       </c>
       <c r="I472" s="1" t="s">
         <v>1245</v>
@@ -30536,7 +30536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FF53B-D65F-7047-B594-3F2157033121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5286C-3116-AB47-B807-7FE551908FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="5440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="1247">
   <si>
     <t>Number</t>
   </si>
@@ -3770,18 +3770,6 @@
   </si>
   <si>
     <t>AY101611_U64439</t>
-  </si>
-  <si>
-    <t>KT898826</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Jord1</t>
   </si>
 </sst>
 </file>
@@ -3805,18 +3793,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3837,18 +3819,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4258,10 +4234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L676"/>
+  <dimension ref="A1:L675"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E415" sqref="E415"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="J666" sqref="A1:L675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4272,40 +4248,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -29843,49 +29819,49 @@
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A674" s="2">
-        <v>689</v>
-      </c>
-      <c r="B674" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C674" s="2" t="s">
+      <c r="A674" s="1">
+        <v>705</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C674" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D674" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E674" s="2">
-        <v>2007</v>
-      </c>
-      <c r="F674" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G674" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H674" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I674" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="J674" s="3">
-        <v>9136</v>
-      </c>
-      <c r="K674" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L674" s="2" t="s">
-        <v>966</v>
+      <c r="D674" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E674" s="1">
+        <v>1991</v>
+      </c>
+      <c r="F674" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J674" s="1">
+        <v>1353</v>
+      </c>
+      <c r="K674" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L674" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>35</v>
@@ -29906,10 +29882,10 @@
         <v>37</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J675" s="1">
-        <v>1353</v>
+        <v>1314</v>
       </c>
       <c r="K675" s="1" t="s">
         <v>75</v>
@@ -29918,47 +29894,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A676" s="1">
-        <v>706</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E676" s="1">
-        <v>1991</v>
-      </c>
-      <c r="F676" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G676" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H676" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I676" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J676" s="1">
-        <v>1314</v>
-      </c>
-      <c r="K676" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L676" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L681">
-    <sortCondition ref="A2:A681"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L680">
+    <sortCondition ref="A2:A680"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5286C-3116-AB47-B807-7FE551908FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B68284-5E0D-C446-954B-F5573F61198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="5440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5344" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="1296">
   <si>
     <t>Number</t>
   </si>
@@ -3770,6 +3770,153 @@
   </si>
   <si>
     <t>AY101611_U64439</t>
+  </si>
+  <si>
+    <t>MT993918</t>
+  </si>
+  <si>
+    <t>MT993917</t>
+  </si>
+  <si>
+    <t>MT993916</t>
+  </si>
+  <si>
+    <t>MT993915</t>
+  </si>
+  <si>
+    <t>MT993914</t>
+  </si>
+  <si>
+    <t>MT993913</t>
+  </si>
+  <si>
+    <t>MT993912</t>
+  </si>
+  <si>
+    <t>MT993911</t>
+  </si>
+  <si>
+    <t>MT993910</t>
+  </si>
+  <si>
+    <t>MT993909</t>
+  </si>
+  <si>
+    <t>MT993908</t>
+  </si>
+  <si>
+    <t>MT993907</t>
+  </si>
+  <si>
+    <t>MT993906</t>
+  </si>
+  <si>
+    <t>MT993905</t>
+  </si>
+  <si>
+    <t>MT993904</t>
+  </si>
+  <si>
+    <t>MT993903</t>
+  </si>
+  <si>
+    <t>MT993902</t>
+  </si>
+  <si>
+    <t>MT993901</t>
+  </si>
+  <si>
+    <t>MT993900</t>
+  </si>
+  <si>
+    <t>MT993899</t>
+  </si>
+  <si>
+    <t>MT993898</t>
+  </si>
+  <si>
+    <t>MT993897</t>
+  </si>
+  <si>
+    <t>MT993896</t>
+  </si>
+  <si>
+    <t>MG554414</t>
+  </si>
+  <si>
+    <t>MG554413</t>
+  </si>
+  <si>
+    <t>MG554412</t>
+  </si>
+  <si>
+    <t>MG554411</t>
+  </si>
+  <si>
+    <t>MG554410</t>
+  </si>
+  <si>
+    <t>MG554409</t>
+  </si>
+  <si>
+    <t>MG554408</t>
+  </si>
+  <si>
+    <t>MG554407</t>
+  </si>
+  <si>
+    <t>MG554406</t>
+  </si>
+  <si>
+    <t>MG554405</t>
+  </si>
+  <si>
+    <t>MG554404</t>
+  </si>
+  <si>
+    <t>MG554403</t>
+  </si>
+  <si>
+    <t>MG554402</t>
+  </si>
+  <si>
+    <t>MH374291</t>
+  </si>
+  <si>
+    <t>MH374290</t>
+  </si>
+  <si>
+    <t>MH374289</t>
+  </si>
+  <si>
+    <t>MH374288</t>
+  </si>
+  <si>
+    <t>MH374287</t>
+  </si>
+  <si>
+    <t>MH374286</t>
+  </si>
+  <si>
+    <t>MH374285</t>
+  </si>
+  <si>
+    <t>MH374284</t>
+  </si>
+  <si>
+    <t>MH374283</t>
+  </si>
+  <si>
+    <t>MH936675</t>
+  </si>
+  <si>
+    <t>MH936674</t>
+  </si>
+  <si>
+    <t>MG996440</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -4234,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L675"/>
+  <dimension ref="A1:L723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="J666" sqref="A1:L675"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="I697" sqref="I697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29892,6 +30039,741 @@
       </c>
       <c r="L675" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B676" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K676" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L676" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B677" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K677" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L677" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B678" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K678" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L678" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B679" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K679" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L679" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B680" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K680" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L680" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B681" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K681" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L681" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B682" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K682" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L682" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B683" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K683" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L683" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B684" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K684" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L684" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B685" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K685" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L685" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B686" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K686" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L686" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B687" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K687" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L687" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B688" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K688" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L688" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="689" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B689" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K689" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L689" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="690" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B690" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K690" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L690" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="691" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B691" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K691" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L691" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="692" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B692" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K692" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L692" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="693" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B693" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K693" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L693" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="694" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B694" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L694" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="695" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B695" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K695" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L695" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="696" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B696" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K696" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L696" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="697" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B697" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K697" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L697" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="698" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B698" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K698" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L698" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="699" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B699" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K699" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="700" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B700" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K700" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="701" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B701" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K701" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="702" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B702" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K702" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="703" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B703" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K703" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="704" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B704" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K704" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B705" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K705" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B706" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K706" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B707" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K707" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B708" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K708" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B709" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K709" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B710" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K710" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B711" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K711" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B712" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K712" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B713" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K713" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B714" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K714" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B715" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K715" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B716" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K716" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B717" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K717" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B718" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K718" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B719" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K719" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B720" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K720" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="721" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B721" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K721" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="722" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B722" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K722" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="723" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B723" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K723" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B68284-5E0D-C446-954B-F5573F61198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C9D4D-95E1-134F-99ED-35FFEA24DC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="5440" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="1296">
   <si>
     <t>Number</t>
   </si>
@@ -3916,7 +3916,7 @@
     <t>MG996440</t>
   </si>
   <si>
-    <t>USA</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4383,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="I697" sqref="I697"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="H682" sqref="H682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30042,6 +30042,9 @@
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>707</v>
+      </c>
       <c r="B676" t="s">
         <v>1247</v>
       </c>
@@ -30049,10 +30052,25 @@
         <v>35</v>
       </c>
       <c r="D676" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E676" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F676" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G676" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J676" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K676" s="1" t="s">
         <v>26</v>
@@ -30062,6 +30080,9 @@
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>708</v>
+      </c>
       <c r="B677" t="s">
         <v>1248</v>
       </c>
@@ -30069,10 +30090,25 @@
         <v>35</v>
       </c>
       <c r="D677" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E677" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F677" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G677" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K677" s="1" t="s">
         <v>26</v>
@@ -30082,6 +30118,9 @@
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>709</v>
+      </c>
       <c r="B678" t="s">
         <v>1249</v>
       </c>
@@ -30089,10 +30128,25 @@
         <v>35</v>
       </c>
       <c r="D678" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E678" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F678" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G678" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H678" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J678" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K678" s="1" t="s">
         <v>26</v>
@@ -30102,6 +30156,9 @@
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>710</v>
+      </c>
       <c r="B679" t="s">
         <v>1250</v>
       </c>
@@ -30109,10 +30166,25 @@
         <v>35</v>
       </c>
       <c r="D679" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E679" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F679" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G679" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J679" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K679" s="1" t="s">
         <v>26</v>
@@ -30122,6 +30194,9 @@
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>711</v>
+      </c>
       <c r="B680" t="s">
         <v>1251</v>
       </c>
@@ -30129,10 +30204,25 @@
         <v>35</v>
       </c>
       <c r="D680" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E680" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F680" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G680" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K680" s="1" t="s">
         <v>26</v>
@@ -30142,6 +30232,9 @@
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>712</v>
+      </c>
       <c r="B681" t="s">
         <v>1252</v>
       </c>
@@ -30149,10 +30242,25 @@
         <v>35</v>
       </c>
       <c r="D681" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E681" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F681" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G681" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J681" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K681" s="1" t="s">
         <v>26</v>
@@ -30162,6 +30270,9 @@
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>713</v>
+      </c>
       <c r="B682" t="s">
         <v>1253</v>
       </c>
@@ -30169,10 +30280,25 @@
         <v>35</v>
       </c>
       <c r="D682" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E682" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F682" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G682" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J682" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K682" s="1" t="s">
         <v>26</v>
@@ -30182,6 +30308,9 @@
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>714</v>
+      </c>
       <c r="B683" t="s">
         <v>1254</v>
       </c>
@@ -30189,10 +30318,25 @@
         <v>35</v>
       </c>
       <c r="D683" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E683" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F683" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G683" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K683" s="1" t="s">
         <v>26</v>
@@ -30202,6 +30346,9 @@
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>715</v>
+      </c>
       <c r="B684" t="s">
         <v>1255</v>
       </c>
@@ -30209,10 +30356,25 @@
         <v>35</v>
       </c>
       <c r="D684" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E684" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F684" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G684" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K684" s="1" t="s">
         <v>26</v>
@@ -30222,6 +30384,9 @@
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>716</v>
+      </c>
       <c r="B685" t="s">
         <v>1256</v>
       </c>
@@ -30229,10 +30394,25 @@
         <v>35</v>
       </c>
       <c r="D685" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E685" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F685" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G685" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K685" s="1" t="s">
         <v>26</v>
@@ -30242,6 +30422,9 @@
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>717</v>
+      </c>
       <c r="B686" t="s">
         <v>1257</v>
       </c>
@@ -30249,10 +30432,25 @@
         <v>35</v>
       </c>
       <c r="D686" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E686" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F686" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G686" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K686" s="1" t="s">
         <v>26</v>
@@ -30262,6 +30460,9 @@
       </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>718</v>
+      </c>
       <c r="B687" t="s">
         <v>1258</v>
       </c>
@@ -30269,10 +30470,25 @@
         <v>35</v>
       </c>
       <c r="D687" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E687" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F687" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G687" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K687" s="1" t="s">
         <v>26</v>
@@ -30282,6 +30498,9 @@
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>719</v>
+      </c>
       <c r="B688" t="s">
         <v>1259</v>
       </c>
@@ -30289,10 +30508,25 @@
         <v>35</v>
       </c>
       <c r="D688" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E688" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F688" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G688" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K688" s="1" t="s">
         <v>26</v>
@@ -30301,7 +30535,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="689" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>720</v>
+      </c>
       <c r="B689" t="s">
         <v>1260</v>
       </c>
@@ -30309,10 +30546,25 @@
         <v>35</v>
       </c>
       <c r="D689" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E689" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F689" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G689" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K689" s="1" t="s">
         <v>26</v>
@@ -30321,7 +30573,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="690" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>721</v>
+      </c>
       <c r="B690" t="s">
         <v>1261</v>
       </c>
@@ -30329,10 +30584,25 @@
         <v>35</v>
       </c>
       <c r="D690" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E690" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F690" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G690" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K690" s="1" t="s">
         <v>26</v>
@@ -30341,7 +30611,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="691" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>722</v>
+      </c>
       <c r="B691" t="s">
         <v>1262</v>
       </c>
@@ -30349,10 +30622,25 @@
         <v>35</v>
       </c>
       <c r="D691" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E691" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F691" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G691" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J691" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K691" s="1" t="s">
         <v>26</v>
@@ -30361,7 +30649,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="692" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>723</v>
+      </c>
       <c r="B692" t="s">
         <v>1263</v>
       </c>
@@ -30369,10 +30660,25 @@
         <v>35</v>
       </c>
       <c r="D692" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E692" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F692" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G692" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K692" s="1" t="s">
         <v>26</v>
@@ -30381,7 +30687,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="693" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>724</v>
+      </c>
       <c r="B693" t="s">
         <v>1264</v>
       </c>
@@ -30389,10 +30698,25 @@
         <v>35</v>
       </c>
       <c r="D693" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E693" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F693" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G693" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H693" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J693" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K693" s="1" t="s">
         <v>26</v>
@@ -30401,7 +30725,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="694" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>725</v>
+      </c>
       <c r="B694" t="s">
         <v>1265</v>
       </c>
@@ -30409,10 +30736,25 @@
         <v>35</v>
       </c>
       <c r="D694" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E694" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F694" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G694" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J694" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K694" s="1" t="s">
         <v>26</v>
@@ -30421,7 +30763,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="695" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>726</v>
+      </c>
       <c r="B695" t="s">
         <v>1266</v>
       </c>
@@ -30429,10 +30774,25 @@
         <v>35</v>
       </c>
       <c r="D695" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E695" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F695" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G695" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J695" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K695" s="1" t="s">
         <v>26</v>
@@ -30441,7 +30801,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="696" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>727</v>
+      </c>
       <c r="B696" t="s">
         <v>1267</v>
       </c>
@@ -30449,10 +30812,25 @@
         <v>35</v>
       </c>
       <c r="D696" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E696" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F696" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G696" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J696" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K696" s="1" t="s">
         <v>26</v>
@@ -30461,7 +30839,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="697" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>728</v>
+      </c>
       <c r="B697" t="s">
         <v>1268</v>
       </c>
@@ -30469,10 +30850,25 @@
         <v>35</v>
       </c>
       <c r="D697" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E697" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F697" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G697" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J697" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K697" s="1" t="s">
         <v>26</v>
@@ -30481,7 +30877,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="698" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>729</v>
+      </c>
       <c r="B698" t="s">
         <v>1269</v>
       </c>
@@ -30489,10 +30888,25 @@
         <v>35</v>
       </c>
       <c r="D698" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E698" s="1" t="s">
         <v>1295</v>
       </c>
+      <c r="F698" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="G698" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J698" s="1" t="s">
+        <v>1295</v>
       </c>
       <c r="K698" s="1" t="s">
         <v>26</v>
@@ -30501,279 +30915,954 @@
         <v>122</v>
       </c>
     </row>
-    <row r="699" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>730</v>
+      </c>
       <c r="B699" t="s">
         <v>1270</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D699" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H699" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J699" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K699" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="700" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L699" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>731</v>
+      </c>
       <c r="B700" t="s">
         <v>1271</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D700" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J700" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K700" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="701" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L700" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>732</v>
+      </c>
       <c r="B701" t="s">
         <v>1272</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D701" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J701" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K701" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="702" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L701" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>733</v>
+      </c>
       <c r="B702" t="s">
         <v>1273</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D702" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J702" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K702" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="703" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L702" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>734</v>
+      </c>
       <c r="B703" t="s">
         <v>1274</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D703" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K703" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="704" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L703" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>735</v>
+      </c>
       <c r="B704" t="s">
         <v>1275</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D704" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J704" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K704" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L704" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>736</v>
+      </c>
       <c r="B705" t="s">
         <v>1276</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D705" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H705" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J705" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K705" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L705" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>737</v>
+      </c>
       <c r="B706" t="s">
         <v>1277</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D706" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H706" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J706" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K706" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L706" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>738</v>
+      </c>
       <c r="B707" t="s">
         <v>1278</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D707" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H707" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J707" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K707" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L707" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>739</v>
+      </c>
       <c r="B708" t="s">
         <v>1279</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D708" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J708" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K708" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L708" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>740</v>
+      </c>
       <c r="B709" t="s">
         <v>1280</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D709" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H709" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J709" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K709" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L709" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>741</v>
+      </c>
       <c r="B710" t="s">
         <v>1281</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D710" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H710" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J710" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K710" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L710" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>742</v>
+      </c>
       <c r="B711" t="s">
         <v>1282</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D711" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J711" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K711" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L711" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>743</v>
+      </c>
       <c r="B712" t="s">
         <v>1283</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D712" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J712" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K712" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L712" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>744</v>
+      </c>
       <c r="B713" t="s">
         <v>1284</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D713" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J713" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K713" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L713" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>745</v>
+      </c>
       <c r="B714" t="s">
         <v>1285</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D714" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J714" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K714" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L714" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>746</v>
+      </c>
       <c r="B715" t="s">
         <v>1286</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D715" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K715" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L715" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>747</v>
+      </c>
       <c r="B716" t="s">
         <v>1287</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D716" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K716" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L716" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>748</v>
+      </c>
       <c r="B717" t="s">
         <v>1288</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D717" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K717" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L717" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>749</v>
+      </c>
       <c r="B718" t="s">
         <v>1289</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D718" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J718" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K718" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L718" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>750</v>
+      </c>
       <c r="B719" t="s">
         <v>1290</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D719" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J719" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K719" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L719" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>751</v>
+      </c>
       <c r="B720" t="s">
         <v>1291</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D720" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G720" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J720" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K720" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="721" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L720" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>752</v>
+      </c>
       <c r="B721" t="s">
         <v>1292</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D721" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G721" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H721" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I721" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J721" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K721" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="722" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L721" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>753</v>
+      </c>
       <c r="B722" t="s">
         <v>1293</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D722" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H722" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J722" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K722" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="723" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L722" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>754</v>
+      </c>
       <c r="B723" t="s">
         <v>1294</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D723" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>1295</v>
+      </c>
       <c r="K723" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="L723" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86AC12-F919-3543-8707-398A7FD70137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F1921-3607-754A-9806-990800A6486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27620" yWindow="2520" windowWidth="23180" windowHeight="16440" xr2:uid="{8CA00448-2F7E-B147-B747-D602BF947B8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12551" uniqueCount="3065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12550" uniqueCount="3065">
   <si>
     <t>pubmed_id</t>
   </si>
@@ -9606,10 +9606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2CC75-2160-0145-8638-7E1B5E2D6B8C}">
-  <dimension ref="A1:J1808"/>
+  <dimension ref="A1:J1807"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A1790" workbookViewId="0">
+      <selection activeCell="B1807" sqref="A1:J1807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67446,11 +67446,6 @@
         <v>21858464</v>
       </c>
     </row>
-    <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J1808" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1808">
     <sortCondition ref="E2:E1808"/>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377F348-E32E-364C-B686-B2A632F58E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAAD8BB-8346-EC49-80B1-9D5A04A48754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19680" yWindow="660" windowWidth="31520" windowHeight="25400" xr2:uid="{8CA00448-2F7E-B147-B747-D602BF947B8B}"/>
   </bookViews>
@@ -9649,8 +9649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2CC75-2160-0145-8638-7E1B5E2D6B8C}">
   <dimension ref="A1:J1807"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:J1807"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="E430" sqref="E430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6155636-0581-9245-B1A7-16940AD21EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FFB7B9-3161-5546-A057-0E59D069BDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19680" yWindow="660" windowWidth="31520" windowHeight="25400" xr2:uid="{8CA00448-2F7E-B147-B747-D602BF947B8B}"/>
   </bookViews>
@@ -9668,8 +9668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB2CC75-2160-0145-8638-7E1B5E2D6B8C}">
   <dimension ref="A1:J1807"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:J1807"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A1689" workbookViewId="0">
+      <selection activeCell="E1725" sqref="E1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/srlv-curated.xlsx
+++ b/tabular/extension/srlv-curated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFB0B2-7BA4-D14A-AA81-151AEB209C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D2796-5D62-EF4C-BD5F-6DDA773AAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="1100" windowWidth="33160" windowHeight="23180" xr2:uid="{8CA00448-2F7E-B147-B747-D602BF947B8B}"/>
   </bookViews>
@@ -9738,7 +9738,7 @@
   <dimension ref="A1:J1819"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J14" sqref="A1:J1819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
